--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Apln</t>
   </si>
   <si>
     <t>Aplnr</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.9343268644752</v>
+        <v>60.33693233333333</v>
       </c>
       <c r="H2">
-        <v>15.9343268644752</v>
+        <v>181.010797</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9889081661667406</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9889081661667406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.0960246221127</v>
+        <v>56.45037966666666</v>
       </c>
       <c r="N2">
-        <v>53.0960246221127</v>
+        <v>169.351139</v>
       </c>
       <c r="O2">
-        <v>0.9700593451342111</v>
+        <v>0.9653149536170281</v>
       </c>
       <c r="P2">
-        <v>0.9700593451342111</v>
+        <v>0.9653149536170281</v>
       </c>
       <c r="Q2">
-        <v>846.049411532967</v>
+        <v>3406.042738138642</v>
       </c>
       <c r="R2">
-        <v>846.049411532967</v>
+        <v>30654.38464324778</v>
       </c>
       <c r="S2">
-        <v>0.9700593451342111</v>
+        <v>0.9546078405547476</v>
       </c>
       <c r="T2">
-        <v>0.9700593451342111</v>
+        <v>0.9546078405547476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.9343268644752</v>
+        <v>60.33693233333333</v>
       </c>
       <c r="H3">
-        <v>15.9343268644752</v>
+        <v>181.010797</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9889081661667406</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9889081661667406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.14532699263293</v>
+        <v>1.230576333333333</v>
       </c>
       <c r="N3">
-        <v>1.14532699263293</v>
+        <v>3.691729</v>
       </c>
       <c r="O3">
-        <v>0.02092501576804164</v>
+        <v>0.02104314874670927</v>
       </c>
       <c r="P3">
-        <v>0.02092501576804164</v>
+        <v>0.02104314874670927</v>
       </c>
       <c r="Q3">
-        <v>18.25001466731948</v>
+        <v>74.24920095533477</v>
       </c>
       <c r="R3">
-        <v>18.25001466731948</v>
+        <v>668.242808598013</v>
       </c>
       <c r="S3">
-        <v>0.02092501576804164</v>
+        <v>0.02080974163748221</v>
       </c>
       <c r="T3">
-        <v>0.02092501576804164</v>
+        <v>0.02080974163748221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.9343268644752</v>
+        <v>60.33693233333333</v>
       </c>
       <c r="H4">
-        <v>15.9343268644752</v>
+        <v>181.010797</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9889081661667406</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9889081661667406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.132026136020745</v>
+        <v>0.2437403333333333</v>
       </c>
       <c r="N4">
-        <v>0.132026136020745</v>
+        <v>0.731221</v>
       </c>
       <c r="O4">
-        <v>0.002412105010881474</v>
+        <v>0.004168017823008542</v>
       </c>
       <c r="P4">
-        <v>0.002412105010881474</v>
+        <v>0.004168017823008542</v>
       </c>
       <c r="Q4">
-        <v>2.103747606008214</v>
+        <v>14.70654399923744</v>
       </c>
       <c r="R4">
-        <v>2.103747606008214</v>
+        <v>132.358895993137</v>
       </c>
       <c r="S4">
-        <v>0.002412105010881474</v>
+        <v>0.004121786861901668</v>
       </c>
       <c r="T4">
-        <v>0.002412105010881474</v>
+        <v>0.004121786861901668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>60.33693233333333</v>
+      </c>
+      <c r="H5">
+        <v>181.010797</v>
+      </c>
+      <c r="I5">
+        <v>0.9889081661667406</v>
+      </c>
+      <c r="J5">
+        <v>0.9889081661667406</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5540203333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.662061</v>
+      </c>
+      <c r="O5">
+        <v>0.009473879813253996</v>
+      </c>
+      <c r="P5">
+        <v>0.009473879813253996</v>
+      </c>
+      <c r="Q5">
+        <v>33.42788736362411</v>
+      </c>
+      <c r="R5">
+        <v>300.850986272617</v>
+      </c>
+      <c r="S5">
+        <v>0.009368797112609113</v>
+      </c>
+      <c r="T5">
+        <v>0.009368797112609113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.416067</v>
+      </c>
+      <c r="H6">
+        <v>1.248201</v>
+      </c>
+      <c r="I6">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="J6">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>56.45037966666666</v>
+      </c>
+      <c r="N6">
+        <v>169.351139</v>
+      </c>
+      <c r="O6">
+        <v>0.9653149536170281</v>
+      </c>
+      <c r="P6">
+        <v>0.9653149536170281</v>
+      </c>
+      <c r="Q6">
+        <v>23.487140116771</v>
+      </c>
+      <c r="R6">
+        <v>211.384261050939</v>
+      </c>
+      <c r="S6">
+        <v>0.006582714848707486</v>
+      </c>
+      <c r="T6">
+        <v>0.006582714848707486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.416067</v>
+      </c>
+      <c r="H7">
+        <v>1.248201</v>
+      </c>
+      <c r="I7">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="J7">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.230576333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.691729</v>
+      </c>
+      <c r="O7">
+        <v>0.02104314874670927</v>
+      </c>
+      <c r="P7">
+        <v>0.02104314874670927</v>
+      </c>
+      <c r="Q7">
+        <v>0.512002203281</v>
+      </c>
+      <c r="R7">
+        <v>4.608019829529001</v>
+      </c>
+      <c r="S7">
+        <v>0.0001434982926551444</v>
+      </c>
+      <c r="T7">
+        <v>0.0001434982926551444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.416067</v>
+      </c>
+      <c r="H8">
+        <v>1.248201</v>
+      </c>
+      <c r="I8">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="J8">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2437403333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.731221</v>
+      </c>
+      <c r="O8">
+        <v>0.004168017823008542</v>
+      </c>
+      <c r="P8">
+        <v>0.004168017823008542</v>
+      </c>
+      <c r="Q8">
+        <v>0.101412309269</v>
+      </c>
+      <c r="R8">
+        <v>0.9127107834210001</v>
+      </c>
+      <c r="S8">
+        <v>2.842271603727884E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.842271603727884E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.416067</v>
+      </c>
+      <c r="H9">
+        <v>1.248201</v>
+      </c>
+      <c r="I9">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="J9">
+        <v>0.006819240522528012</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5540203333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.662061</v>
+      </c>
+      <c r="O9">
+        <v>0.009473879813253996</v>
+      </c>
+      <c r="P9">
+        <v>0.009473879813253996</v>
+      </c>
+      <c r="Q9">
+        <v>0.230509578029</v>
+      </c>
+      <c r="R9">
+        <v>2.074586202261</v>
+      </c>
+      <c r="S9">
+        <v>6.460466512810177E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.460466512810177E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2606866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.78206</v>
+      </c>
+      <c r="I10">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="J10">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>56.45037966666666</v>
+      </c>
+      <c r="N10">
+        <v>169.351139</v>
+      </c>
+      <c r="O10">
+        <v>0.9653149536170281</v>
+      </c>
+      <c r="P10">
+        <v>0.9653149536170281</v>
+      </c>
+      <c r="Q10">
+        <v>14.71586130737111</v>
+      </c>
+      <c r="R10">
+        <v>132.44275176634</v>
+      </c>
+      <c r="S10">
+        <v>0.004124398213573115</v>
+      </c>
+      <c r="T10">
+        <v>0.004124398213573115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2606866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.78206</v>
+      </c>
+      <c r="I11">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="J11">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.230576333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.691729</v>
+      </c>
+      <c r="O11">
+        <v>0.02104314874670927</v>
+      </c>
+      <c r="P11">
+        <v>0.02104314874670927</v>
+      </c>
+      <c r="Q11">
+        <v>0.3207948424155556</v>
+      </c>
+      <c r="R11">
+        <v>2.88715358174</v>
+      </c>
+      <c r="S11">
+        <v>8.990881657191609E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.990881657191609E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>15.9343268644752</v>
-      </c>
-      <c r="H5">
-        <v>15.9343268644752</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.361443256258384</v>
-      </c>
-      <c r="N5">
-        <v>0.361443256258384</v>
-      </c>
-      <c r="O5">
-        <v>0.006603534086865759</v>
-      </c>
-      <c r="P5">
-        <v>0.006603534086865759</v>
-      </c>
-      <c r="Q5">
-        <v>5.759354988181363</v>
-      </c>
-      <c r="R5">
-        <v>5.759354988181363</v>
-      </c>
-      <c r="S5">
-        <v>0.006603534086865759</v>
-      </c>
-      <c r="T5">
-        <v>0.006603534086865759</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2606866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.78206</v>
+      </c>
+      <c r="I12">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="J12">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2437403333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.731221</v>
+      </c>
+      <c r="O12">
+        <v>0.004168017823008542</v>
+      </c>
+      <c r="P12">
+        <v>0.004168017823008542</v>
+      </c>
+      <c r="Q12">
+        <v>0.0635398550288889</v>
+      </c>
+      <c r="R12">
+        <v>0.57185869526</v>
+      </c>
+      <c r="S12">
+        <v>1.780824506959559E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.780824506959559E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2606866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.78206</v>
+      </c>
+      <c r="I13">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="J13">
+        <v>0.00427259331073141</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5540203333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.662061</v>
+      </c>
+      <c r="O13">
+        <v>0.009473879813253996</v>
+      </c>
+      <c r="P13">
+        <v>0.009473879813253996</v>
+      </c>
+      <c r="Q13">
+        <v>0.1444257139622222</v>
+      </c>
+      <c r="R13">
+        <v>1.29983142566</v>
+      </c>
+      <c r="S13">
+        <v>4.047803551678237E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.047803551678237E-05</v>
       </c>
     </row>
   </sheetData>
